--- a/Phase_1/МАИ_вариант_3_группа_19.xlsx
+++ b/Phase_1/МАИ_вариант_3_группа_19.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denisryndin/Desktop/Фаза 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BE8EE2-9D6B-4B40-8C19-02B742DE8435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8628F42-5097-4A49-9D52-5CD401AA18D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1140" windowWidth="38400" windowHeight="21600" xr2:uid="{90CAB405-6E6F-1242-AE02-25EF59D95868}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист2" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -308,9 +308,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -653,11 +653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2705E99C-2694-4541-BB2C-85025A8AF190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C27D6DA-F449-584A-B9A7-E2D7410E2797}">
   <dimension ref="A2:AI85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,6 @@
     <col min="2" max="2" width="10.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.83203125" customWidth="1"/>
     <col min="10" max="10" width="19.6640625" customWidth="1"/>
     <col min="11" max="11" width="26.83203125" customWidth="1"/>
     <col min="29" max="29" width="24.5" customWidth="1"/>
@@ -814,10 +813,10 @@
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -830,10 +829,10 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.2">
@@ -871,7 +870,7 @@
       <c r="U18" s="21"/>
       <c r="V18" s="21"/>
       <c r="W18" s="22"/>
-      <c r="Y18" s="18" t="s">
+      <c r="Y18" s="16" t="s">
         <v>25</v>
       </c>
       <c r="Z18" s="17"/>
@@ -880,14 +879,14 @@
       <c r="AC18" s="17"/>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H19" s="17"/>
@@ -895,14 +894,14 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
       <c r="L19" s="7"/>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="N19" s="17"/>
       <c r="O19" s="17"/>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
-      <c r="S19" s="18" t="s">
+      <c r="S19" s="16" t="s">
         <v>25</v>
       </c>
       <c r="T19" s="17"/>
@@ -950,7 +949,7 @@
       </c>
       <c r="C20" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="D20" s="5" t="str">
         <f>$B$14</f>
@@ -958,7 +957,7 @@
       </c>
       <c r="E20" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="5" t="str">
@@ -967,7 +966,7 @@
       </c>
       <c r="I20" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="J20" s="5" t="str">
         <f>$B$14</f>
@@ -975,7 +974,7 @@
       </c>
       <c r="K20" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="4"/>
@@ -985,7 +984,7 @@
       </c>
       <c r="O20" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="P20" s="5" t="str">
         <f>$B$14</f>
@@ -993,7 +992,7 @@
       </c>
       <c r="Q20" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="S20" s="4"/>
       <c r="T20" s="5" t="str">
@@ -1002,7 +1001,7 @@
       </c>
       <c r="U20" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="V20" s="5" t="str">
         <f>$B$14</f>
@@ -1010,7 +1009,7 @@
       </c>
       <c r="W20" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="Y20" s="10" t="str">
         <f>G3</f>
@@ -1040,7 +1039,7 @@
         <v>2.2360679774997898</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" ref="AG20:AI20" si="0">POWER(AA20*AA28,1/2)</f>
+        <f t="shared" ref="AG20:AI23" si="0">POWER(AA20*AA28,1/2)</f>
         <v>0.21821789023599236</v>
       </c>
       <c r="AH20" s="6">
@@ -1151,22 +1150,22 @@
         <v>4.5825756949558398</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" ref="AG21:AG23" si="4">POWER(AA21*AA29,1/2)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" ref="AH21:AH23" si="5">POWER(AB21*AB29,1/2)</f>
+        <f t="shared" si="0"/>
         <v>0.2581988897342512</v>
       </c>
       <c r="AI21" s="6">
-        <f t="shared" ref="AI21:AI23" si="6">POWER(AC21*AC29,1/2)</f>
+        <f t="shared" si="0"/>
         <v>0.3779644730092272</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="str">
-        <f t="shared" ref="A22:A24" si="7">B13</f>
-        <v>Recipe Manager</v>
+        <f>B13</f>
+        <v>FitLife</v>
       </c>
       <c r="B22" s="6">
         <v>3</v>
@@ -1182,8 +1181,8 @@
       </c>
       <c r="F22" s="7"/>
       <c r="G22" s="5" t="str">
-        <f t="shared" ref="G22:G24" si="8">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="G22:G24" si="4">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="H22" s="6">
         <v>7</v>
@@ -1198,8 +1197,8 @@
         <v>7</v>
       </c>
       <c r="M22" s="5" t="str">
-        <f t="shared" ref="M22:M24" si="9">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="M22:M24" si="5">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="N22" s="6">
         <v>5</v>
@@ -1214,8 +1213,8 @@
         <v>5</v>
       </c>
       <c r="S22" s="5" t="str">
-        <f t="shared" ref="S22:S24" si="10">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="S22:S24" si="6">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="T22" s="6">
         <f>1/U21</f>
@@ -1257,21 +1256,21 @@
         <v>6.7082039324993694</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.872983346207417</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A22:A24" si="7">B14</f>
         <v>Habit Tracker</v>
       </c>
       <c r="B23" s="6">
@@ -1288,7 +1287,7 @@
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>Habit Tracker</v>
       </c>
       <c r="H23" s="6">
@@ -1307,7 +1306,7 @@
         <v>0.2</v>
       </c>
       <c r="M23" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>Habit Tracker</v>
       </c>
       <c r="N23" s="6">
@@ -1324,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="S23" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>Habit Tracker</v>
       </c>
       <c r="T23" s="6">
@@ -1364,22 +1363,22 @@
         <v>4.5825756949558398</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>2.6457513110645907</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0.999999999995</v>
       </c>
       <c r="AI23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="B24" s="6">
         <v>9</v>
@@ -1396,8 +1395,8 @@
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="5" t="str">
-        <f t="shared" si="8"/>
-        <v>FitLife</v>
+        <f t="shared" si="4"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="H24" s="6">
         <f>1/K21</f>
@@ -1414,8 +1413,8 @@
         <v>1</v>
       </c>
       <c r="M24" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>FitLife</v>
+        <f t="shared" si="5"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="N24" s="6">
         <f>1/Q21</f>
@@ -1433,8 +1432,8 @@
         <v>1</v>
       </c>
       <c r="S24" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>FitLife</v>
+        <f t="shared" si="6"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="T24" s="6">
         <f>1/W21</f>
@@ -1455,15 +1454,15 @@
         <v>18.109423299910837</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" ref="AG24:AI24" si="11">SUM(AG20:AG23)</f>
+        <f t="shared" ref="AG24:AI24" si="8">SUM(AG20:AG23)</f>
         <v>7.7369525475080003</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.4072700882292373</v>
       </c>
       <c r="AI24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>2.5961823632502194</v>
       </c>
     </row>
@@ -1486,35 +1485,35 @@
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
       <c r="E26" s="17"/>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="M26" s="18" t="s">
+      <c r="M26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="17"/>
       <c r="O26" s="17"/>
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
-      <c r="S26" s="18" t="s">
+      <c r="S26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="T26" s="17"/>
       <c r="U26" s="17"/>
       <c r="V26" s="17"/>
       <c r="W26" s="17"/>
-      <c r="Y26" s="18" t="s">
+      <c r="Y26" s="16" t="s">
         <v>26</v>
       </c>
       <c r="Z26" s="17"/>
@@ -1526,19 +1525,19 @@
         <v>Сложность реализации</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" ref="AF26:AI26" si="12">AF20/AF24</f>
+        <f t="shared" ref="AF26:AI26" si="9">AF20/AF24</f>
         <v>0.12347538297979921</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>2.8204630815045945E-2</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>6.1925414696462747E-2</v>
       </c>
       <c r="AI26" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>8.4053375188482701E-2</v>
       </c>
     </row>
@@ -1550,7 +1549,7 @@
       </c>
       <c r="C27" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="D27" s="5" t="str">
         <f>$B$14</f>
@@ -1558,7 +1557,7 @@
       </c>
       <c r="E27" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="G27" s="4"/>
       <c r="H27" s="5" t="str">
@@ -1567,7 +1566,7 @@
       </c>
       <c r="I27" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>$B$14</f>
@@ -1575,7 +1574,7 @@
       </c>
       <c r="K27" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="5" t="str">
@@ -1584,7 +1583,7 @@
       </c>
       <c r="O27" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="P27" s="5" t="str">
         <f>$B$14</f>
@@ -1592,7 +1591,7 @@
       </c>
       <c r="Q27" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="S27" s="4"/>
       <c r="T27" s="5" t="str">
@@ -1601,7 +1600,7 @@
       </c>
       <c r="U27" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="V27" s="5" t="str">
         <f>$B$14</f>
@@ -1609,7 +1608,7 @@
       </c>
       <c r="W27" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="Z27" s="10" t="str">
         <f>G3</f>
@@ -1628,23 +1627,23 @@
         <v xml:space="preserve">Охват тем предмета </v>
       </c>
       <c r="AE27" s="10" t="str">
-        <f t="shared" ref="AE27:AE29" si="13">G4</f>
+        <f t="shared" ref="AE27:AE29" si="10">G4</f>
         <v xml:space="preserve">Потенциал для демонстрации </v>
       </c>
       <c r="AF27" s="6">
-        <f t="shared" ref="AF27:AI27" si="14">AF21/AF24</f>
+        <f t="shared" ref="AF27:AI27" si="11">AF21/AF24</f>
         <v>0.25304923404040164</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.12924985565823208</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.10725796452868303</v>
       </c>
       <c r="AI27" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="11"/>
         <v>0.14558471637410128</v>
       </c>
     </row>
@@ -1736,30 +1735,30 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="AE28" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Практическая полезность </v>
       </c>
       <c r="AF28" s="6">
-        <f t="shared" ref="AF28:AI28" si="15">AF22/AF24</f>
+        <f t="shared" ref="AF28:AI28" si="12">AF22/AF24</f>
         <v>0.37042614893939763</v>
       </c>
       <c r="AG28" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.50058253846404532</v>
       </c>
       <c r="AH28" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.4154083103884656</v>
       </c>
       <c r="AI28" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>0.38518095421967097</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="str">
-        <f t="shared" ref="A29:A31" si="16">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="A29:A31" si="13">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="B29" s="6">
         <v>5</v>
@@ -1774,8 +1773,8 @@
         <v>7</v>
       </c>
       <c r="G29" s="5" t="str">
-        <f t="shared" ref="G29:G31" si="17">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="G29:G31" si="14">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="H29" s="6">
         <v>3</v>
@@ -1790,8 +1789,8 @@
         <v>9</v>
       </c>
       <c r="M29" s="5" t="str">
-        <f t="shared" ref="M29:M31" si="18">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="M29:M31" si="15">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="N29" s="8">
         <v>3</v>
@@ -1806,8 +1805,8 @@
         <v>3</v>
       </c>
       <c r="S29" s="5" t="str">
-        <f t="shared" ref="S29:S31" si="19">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="S29:S31" si="16">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="T29" s="6">
         <f>1/U28</f>
@@ -1824,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="Y29" s="10" t="str">
-        <f t="shared" ref="Y29:Y31" si="20">G4</f>
+        <f t="shared" ref="Y29:Y31" si="17">G4</f>
         <v xml:space="preserve">Потенциал для демонстрации </v>
       </c>
       <c r="Z29" s="6">
@@ -1840,29 +1839,29 @@
         <v>1</v>
       </c>
       <c r="AE29" s="10" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">Охват тем предмета </v>
       </c>
       <c r="AF29" s="6">
-        <f t="shared" ref="AF29:AI29" si="21">AF23/AF24</f>
+        <f t="shared" ref="AF29:AI29" si="18">AF23/AF24</f>
         <v>0.25304923404040164</v>
       </c>
       <c r="AG29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0.34196297506267664</v>
       </c>
       <c r="AH29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0.41540831038638859</v>
       </c>
       <c r="AI29" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="18"/>
         <v>0.38518095421774506</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>Habit Tracker</v>
       </c>
       <c r="B30" s="6">
@@ -1879,7 +1878,7 @@
         <v>0.2</v>
       </c>
       <c r="G30" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="14"/>
         <v>Habit Tracker</v>
       </c>
       <c r="H30" s="6">
@@ -1897,11 +1896,11 @@
         <v>0.2</v>
       </c>
       <c r="M30" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="15"/>
         <v>Habit Tracker</v>
       </c>
       <c r="N30" s="6">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O30" s="6">
         <f>1/P29</f>
@@ -1914,7 +1913,7 @@
         <v>7</v>
       </c>
       <c r="S30" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="16"/>
         <v>Habit Tracker</v>
       </c>
       <c r="T30" s="6">
@@ -1930,7 +1929,7 @@
         <v>3</v>
       </c>
       <c r="Y30" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Практическая полезность </v>
       </c>
       <c r="Z30" s="6">
@@ -1949,8 +1948,8 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="str">
-        <f t="shared" si="16"/>
-        <v>FitLife</v>
+        <f t="shared" si="13"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="B31" s="6">
         <v>9</v>
@@ -1967,8 +1966,8 @@
         <v>1</v>
       </c>
       <c r="G31" s="5" t="str">
-        <f t="shared" si="17"/>
-        <v>FitLife</v>
+        <f t="shared" si="14"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="H31" s="6">
         <v>9</v>
@@ -1984,8 +1983,8 @@
         <v>1</v>
       </c>
       <c r="M31" s="5" t="str">
-        <f t="shared" si="18"/>
-        <v>FitLife</v>
+        <f t="shared" si="15"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="N31" s="6">
         <f>1/Q28</f>
@@ -2003,8 +2002,8 @@
         <v>1</v>
       </c>
       <c r="S31" s="5" t="str">
-        <f t="shared" si="19"/>
-        <v>FitLife</v>
+        <f t="shared" si="16"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="T31" s="6">
         <f>1/W28</f>
@@ -2021,7 +2020,7 @@
         <v>1</v>
       </c>
       <c r="Y31" s="10" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="17"/>
         <v xml:space="preserve">Охват тем предмета </v>
       </c>
       <c r="Z31" s="11">
@@ -2054,7 +2053,7 @@
         <v>Сложность реализации</v>
       </c>
       <c r="AF32" s="6">
-        <f t="shared" ref="AF32:AF35" si="22">AVERAGE(AF26:AI26)</f>
+        <f t="shared" ref="AF32:AF35" si="19">AVERAGE(AF26:AI26)</f>
         <v>7.441470091994766E-2</v>
       </c>
       <c r="AG32" s="7"/>
@@ -2068,11 +2067,11 @@
       <c r="AB33" s="7"/>
       <c r="AC33" s="7"/>
       <c r="AE33" s="10" t="str">
-        <f t="shared" ref="AE33:AE35" si="23">G4</f>
+        <f t="shared" ref="AE33:AE35" si="20">G4</f>
         <v xml:space="preserve">Потенциал для демонстрации </v>
       </c>
       <c r="AF33" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.15878544265035449</v>
       </c>
       <c r="AG33" s="7"/>
@@ -2085,11 +2084,11 @@
       <c r="AB34" s="7"/>
       <c r="AC34" s="7"/>
       <c r="AE34" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">Практическая полезность </v>
       </c>
       <c r="AF34" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.41789948800289489</v>
       </c>
       <c r="AG34" s="7"/>
@@ -2103,11 +2102,11 @@
       <c r="AB35" s="7"/>
       <c r="AC35" s="7"/>
       <c r="AE35" s="10" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="20"/>
         <v xml:space="preserve">Охват тем предмета </v>
       </c>
       <c r="AF35" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="19"/>
         <v>0.348900368426803</v>
       </c>
       <c r="AG35" s="7"/>
@@ -2308,7 +2307,7 @@
       </c>
       <c r="C58" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="D58" s="5" t="str">
         <f>$B$14</f>
@@ -2316,7 +2315,7 @@
       </c>
       <c r="E58" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="H58" s="5" t="str">
         <f>$B$12</f>
@@ -2324,7 +2323,7 @@
       </c>
       <c r="I58" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>$B$14</f>
@@ -2332,31 +2331,31 @@
       </c>
       <c r="K58" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="N58" s="14" t="s">
         <v>17</v>
       </c>
       <c r="O58" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P58" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q58" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T58" s="14" t="s">
         <v>17</v>
       </c>
       <c r="U58" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V58" s="15" t="s">
         <v>19</v>
       </c>
       <c r="W58" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:23" x14ac:dyDescent="0.2">
@@ -2369,15 +2368,15 @@
         <v>1</v>
       </c>
       <c r="C59" s="6">
-        <f t="shared" ref="C59:E59" si="24">POWER(C21*C28,1/2)</f>
+        <f t="shared" ref="C59:E60" si="21">POWER(C21*C28,1/2)</f>
         <v>0.2581988897471611</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0.7745966692414834</v>
       </c>
       <c r="E59" s="6">
-        <f t="shared" si="24"/>
+        <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G59" s="5" t="str">
@@ -2389,15 +2388,15 @@
         <v>1</v>
       </c>
       <c r="I59" s="6">
-        <f t="shared" ref="I59:K59" si="25">POWER(I21*I28,1/2)</f>
+        <f t="shared" ref="I59:K59" si="22">POWER(I21*I28,1/2)</f>
         <v>0.21821789023599236</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.872983346207417</v>
       </c>
       <c r="K59" s="6">
-        <f t="shared" si="25"/>
+        <f t="shared" si="22"/>
         <v>3.872983346207417</v>
       </c>
       <c r="M59" s="5" t="str">
@@ -2409,15 +2408,15 @@
         <v>1</v>
       </c>
       <c r="O59" s="6">
-        <f t="shared" ref="O59:Q59" si="26">POWER(O21*O28,1/2)</f>
+        <f t="shared" ref="O59:Q59" si="23">POWER(O21*O28,1/2)</f>
         <v>0.2581988897471611</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>0.44721359549995793</v>
       </c>
       <c r="Q59" s="6">
-        <f t="shared" si="26"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="S59" s="5" t="str">
@@ -2429,332 +2428,332 @@
         <v>1</v>
       </c>
       <c r="U59" s="6">
-        <f t="shared" ref="U59:W59" si="27">POWER(U21*U28,1/2)</f>
+        <f t="shared" ref="U59:W59" si="24">POWER(U21*U28,1/2)</f>
         <v>3.872983346207417</v>
       </c>
       <c r="V59" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W59" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" si="24"/>
         <v>1.7320508075688772</v>
       </c>
     </row>
     <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="str">
-        <f t="shared" ref="A60:A62" si="28">B13</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="A60:A62" si="25">B13</f>
+        <v>FitLife</v>
       </c>
       <c r="B60" s="6">
         <f>POWER(B22*B29,1/2)</f>
         <v>3.872983346207417</v>
       </c>
       <c r="C60" s="6">
-        <f t="shared" ref="B60:E60" si="29">POWER(C22*C29,1/2)</f>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="D60" s="6">
+        <f t="shared" si="21"/>
+        <v>3</v>
+      </c>
+      <c r="E60" s="6">
+        <f t="shared" si="21"/>
+        <v>5.9160797830996161</v>
+      </c>
+      <c r="G60" s="5" t="str">
+        <f t="shared" ref="G60:G62" si="26">A60</f>
+        <v>FitLife</v>
+      </c>
+      <c r="H60" s="6">
+        <f t="shared" ref="H60:K62" si="27">POWER(H22*H29,1/2)</f>
+        <v>4.5825756949558398</v>
+      </c>
+      <c r="I60" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="J60" s="6">
+        <f t="shared" si="27"/>
+        <v>5.9160797830996161</v>
+      </c>
+      <c r="K60" s="6">
+        <f t="shared" si="27"/>
+        <v>7.9372539331937721</v>
+      </c>
+      <c r="M60" s="5" t="str">
+        <f t="shared" ref="M60:M62" si="28">A60</f>
+        <v>FitLife</v>
+      </c>
+      <c r="N60" s="6">
+        <f t="shared" ref="N60:Q62" si="29">POWER(N22*N29,1/2)</f>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="O60" s="6">
         <f t="shared" si="29"/>
-        <v>3</v>
-      </c>
-      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="P60" s="6">
         <f t="shared" si="29"/>
         <v>5.9160797830996161</v>
       </c>
-      <c r="G60" s="5" t="str">
-        <f t="shared" ref="G60:G62" si="30">A60</f>
-        <v>Recipe Manager</v>
-      </c>
-      <c r="H60" s="6">
-        <f t="shared" ref="H60:K60" si="31">POWER(H22*H29,1/2)</f>
-        <v>4.5825756949558398</v>
-      </c>
-      <c r="I60" s="6">
+      <c r="Q60" s="6">
+        <f t="shared" si="29"/>
+        <v>3.872983346207417</v>
+      </c>
+      <c r="S60" s="5" t="str">
+        <f t="shared" ref="S60:S62" si="30">A60</f>
+        <v>FitLife</v>
+      </c>
+      <c r="T60" s="6">
+        <f t="shared" ref="T60:W62" si="31">POWER(T22*T29,1/2)</f>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="U60" s="6">
         <f t="shared" si="31"/>
         <v>1</v>
       </c>
-      <c r="J60" s="6">
+      <c r="V60" s="6">
         <f t="shared" si="31"/>
-        <v>5.9160797830996161</v>
-      </c>
-      <c r="K60" s="6">
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="W60" s="6">
         <f t="shared" si="31"/>
-        <v>7.9372539331937721</v>
-      </c>
-      <c r="M60" s="5" t="str">
-        <f t="shared" ref="M60:M62" si="32">A60</f>
-        <v>Recipe Manager</v>
-      </c>
-      <c r="N60" s="6">
-        <f t="shared" ref="N60:Q60" si="33">POWER(N22*N29,1/2)</f>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="O60" s="6">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="P60" s="6">
-        <f t="shared" si="33"/>
-        <v>5.9160797830996161</v>
-      </c>
-      <c r="Q60" s="6">
-        <f t="shared" si="33"/>
-        <v>3.872983346207417</v>
-      </c>
-      <c r="S60" s="5" t="str">
-        <f t="shared" ref="S60:S62" si="34">A60</f>
-        <v>Recipe Manager</v>
-      </c>
-      <c r="T60" s="6">
-        <f t="shared" ref="T60:W60" si="35">POWER(T22*T29,1/2)</f>
-        <v>0.2581988897471611</v>
-      </c>
-      <c r="U60" s="6">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="V60" s="6">
-        <f t="shared" si="35"/>
-        <v>0.2581988897471611</v>
-      </c>
-      <c r="W60" s="6">
-        <f t="shared" si="35"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>Habit Tracker</v>
+      </c>
+      <c r="B61" s="6">
+        <f t="shared" ref="B61:E62" si="32">POWER(B23*B30,1/2)</f>
+        <v>1.2909944486712559</v>
+      </c>
+      <c r="C61" s="6">
+        <f t="shared" si="32"/>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="D61" s="6">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="6">
+        <f t="shared" si="32"/>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="G61" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Habit Tracker</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="27"/>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="I61" s="6">
+        <f t="shared" si="27"/>
+        <v>0.1690308509457033</v>
+      </c>
+      <c r="J61" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="K61" s="6">
+        <f t="shared" si="27"/>
+        <v>0.2</v>
+      </c>
+      <c r="M61" s="5" t="str">
         <f t="shared" si="28"/>
         <v>Habit Tracker</v>
       </c>
-      <c r="B61" s="6">
-        <f t="shared" ref="B61:E61" si="36">POWER(B23*B30,1/2)</f>
-        <v>1.2909944486712559</v>
-      </c>
-      <c r="C61" s="6">
-        <f t="shared" si="36"/>
-        <v>0.57735026918962573</v>
-      </c>
-      <c r="D61" s="6">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="E61" s="6">
-        <f t="shared" si="36"/>
-        <v>0.44721359549995793</v>
-      </c>
-      <c r="G61" s="5" t="str">
+      <c r="N61" s="6">
+        <f t="shared" si="29"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="O61" s="6">
+        <f t="shared" si="29"/>
+        <v>0.1690308509457033</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="Q61" s="6">
+        <f t="shared" si="29"/>
+        <v>5.9160797830996161</v>
+      </c>
+      <c r="S61" s="5" t="str">
         <f t="shared" si="30"/>
         <v>Habit Tracker</v>
       </c>
-      <c r="H61" s="6">
-        <f t="shared" ref="H61:K61" si="37">POWER(H23*H30,1/2)</f>
-        <v>0.2581988897471611</v>
-      </c>
-      <c r="I61" s="6">
-        <f t="shared" si="37"/>
-        <v>0.1690308509457033</v>
-      </c>
-      <c r="J61" s="6">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="K61" s="6">
-        <f t="shared" si="37"/>
-        <v>0.2</v>
-      </c>
-      <c r="M61" s="5" t="str">
-        <f t="shared" si="32"/>
-        <v>Habit Tracker</v>
-      </c>
-      <c r="N61" s="6">
-        <f t="shared" ref="N61:Q61" si="38">POWER(N23*N30,1/2)</f>
-        <v>3</v>
-      </c>
-      <c r="O61" s="6">
-        <f t="shared" si="38"/>
-        <v>0.1690308509457033</v>
-      </c>
-      <c r="P61" s="6">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="Q61" s="6">
-        <f t="shared" si="38"/>
-        <v>5.9160797830996161</v>
-      </c>
-      <c r="S61" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>Habit Tracker</v>
-      </c>
       <c r="T61" s="6">
-        <f t="shared" ref="T61:W61" si="39">POWER(T23*T30,1/2)</f>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="U61" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>3.872983346207417</v>
       </c>
       <c r="V61" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="W61" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="str">
+        <f t="shared" si="25"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="B62" s="6">
+        <f t="shared" si="32"/>
+        <v>9</v>
+      </c>
+      <c r="C62" s="6">
+        <f t="shared" si="32"/>
+        <v>0.1690308509457033</v>
+      </c>
+      <c r="D62" s="6">
+        <f t="shared" si="32"/>
+        <v>5</v>
+      </c>
+      <c r="E62" s="6">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="5" t="str">
+        <f t="shared" si="26"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="27"/>
+        <v>1.7320508075688772</v>
+      </c>
+      <c r="I62" s="6">
+        <f t="shared" si="27"/>
+        <v>0.12598815766974242</v>
+      </c>
+      <c r="J62" s="6">
+        <f t="shared" si="27"/>
+        <v>6.7082039324993694</v>
+      </c>
+      <c r="K62" s="6">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="M62" s="5" t="str">
         <f t="shared" si="28"/>
-        <v>FitLife</v>
-      </c>
-      <c r="B62" s="6">
-        <f t="shared" ref="B62:E62" si="40">POWER(B24*B31,1/2)</f>
-        <v>9</v>
-      </c>
-      <c r="C62" s="6">
-        <f t="shared" si="40"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="N62" s="6">
+        <f t="shared" si="29"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O62" s="6">
+        <f t="shared" si="29"/>
+        <v>0.2581988897471611</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="29"/>
         <v>0.1690308509457033</v>
       </c>
-      <c r="D62" s="6">
-        <f t="shared" si="40"/>
+      <c r="Q62" s="6">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="S62" s="5" t="str">
+        <f t="shared" si="30"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="T62" s="6">
+        <f t="shared" si="31"/>
+        <v>0.57735026918962573</v>
+      </c>
+      <c r="U62" s="6">
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
-      <c r="E62" s="6">
-        <f t="shared" si="40"/>
-        <v>1</v>
-      </c>
-      <c r="G62" s="5" t="str">
-        <f t="shared" si="30"/>
-        <v>FitLife</v>
-      </c>
-      <c r="H62" s="6">
-        <f t="shared" ref="H62:K62" si="41">POWER(H24*H31,1/2)</f>
-        <v>1.7320508075688772</v>
-      </c>
-      <c r="I62" s="6">
-        <f t="shared" si="41"/>
-        <v>0.12598815766974242</v>
-      </c>
-      <c r="J62" s="6">
-        <f t="shared" si="41"/>
-        <v>6.7082039324993694</v>
-      </c>
-      <c r="K62" s="6">
-        <f t="shared" si="41"/>
-        <v>1</v>
-      </c>
-      <c r="M62" s="5" t="str">
-        <f t="shared" si="32"/>
-        <v>FitLife</v>
-      </c>
-      <c r="N62" s="6">
-        <f t="shared" ref="N62:Q62" si="42">POWER(N24*N31,1/2)</f>
+      <c r="V62" s="6">
+        <f t="shared" si="31"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="O62" s="6">
-        <f t="shared" si="42"/>
-        <v>0.2581988897471611</v>
-      </c>
-      <c r="P62" s="6">
-        <f t="shared" si="42"/>
-        <v>0.1690308509457033</v>
-      </c>
-      <c r="Q62" s="6">
-        <f t="shared" si="42"/>
-        <v>1</v>
-      </c>
-      <c r="S62" s="5" t="str">
-        <f t="shared" si="34"/>
-        <v>FitLife</v>
-      </c>
-      <c r="T62" s="6">
-        <f t="shared" ref="T62:W62" si="43">POWER(T24*T31,1/2)</f>
-        <v>0.57735026918962573</v>
-      </c>
-      <c r="U62" s="6">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-      <c r="V62" s="6">
-        <f t="shared" si="43"/>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="W62" s="6">
-        <f t="shared" si="43"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B63" s="7">
-        <f t="shared" ref="B63:E63" si="44">SUM(B59:B62)</f>
+        <f t="shared" ref="B63:E63" si="33">SUM(B59:B62)</f>
         <v>15.163977794878672</v>
       </c>
       <c r="C63" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>2.0045800098824902</v>
       </c>
       <c r="D63" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>9.7745966692414825</v>
       </c>
       <c r="E63" s="7">
-        <f t="shared" si="44"/>
+        <f t="shared" si="33"/>
         <v>7.6966267119329075</v>
       </c>
       <c r="H63" s="7">
-        <f t="shared" ref="H63:K63" si="45">SUM(H59:H62)</f>
+        <f t="shared" ref="H63:K63" si="34">SUM(H59:H62)</f>
         <v>7.5728253922718789</v>
       </c>
       <c r="I63" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>1.513236898851438</v>
       </c>
       <c r="J63" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>17.497267061806404</v>
       </c>
       <c r="K63" s="7">
-        <f t="shared" si="45"/>
+        <f t="shared" si="34"/>
         <v>13.010237279401188</v>
       </c>
       <c r="N63" s="7">
-        <f t="shared" ref="N63:Q63" si="46">SUM(N59:N62)</f>
-        <v>8.2063166795407501</v>
+        <f t="shared" ref="N63:Q63" si="35">SUM(N59:N62)</f>
+        <v>6.9383674871096277</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>1.6854286304400254</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>7.5323242295452779</v>
       </c>
       <c r="Q63" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="35"/>
         <v>13.789063129307033</v>
       </c>
       <c r="T63" s="7">
-        <f t="shared" ref="T63:W63" si="47">SUM(T59:T62)</f>
+        <f t="shared" ref="T63:W63" si="36">SUM(T59:T62)</f>
         <v>2.8355491589367867</v>
       </c>
       <c r="U63" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>13.745966692414834</v>
       </c>
       <c r="V63" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>2.5915322230804945</v>
       </c>
       <c r="W63" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="36"/>
         <v>6.7320508075688767</v>
       </c>
     </row>
     <row r="64" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
@@ -2790,7 +2789,7 @@
       </c>
       <c r="C66" s="5" t="str">
         <f>$B$13</f>
-        <v>Recipe Manager</v>
+        <v>FitLife</v>
       </c>
       <c r="D66" s="5" t="str">
         <f>$B$14</f>
@@ -2798,43 +2797,43 @@
       </c>
       <c r="E66" s="5" t="str">
         <f>$B$15</f>
-        <v>FitLife</v>
+        <v>Recipe Manager</v>
       </c>
       <c r="H66" s="14" t="s">
         <v>17</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J66" s="15" t="s">
         <v>19</v>
       </c>
       <c r="K66" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N66" s="14" t="s">
         <v>17</v>
       </c>
       <c r="O66" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P66" s="15" t="s">
         <v>19</v>
       </c>
       <c r="Q66" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="T66" s="14" t="s">
         <v>17</v>
       </c>
       <c r="U66" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V66" s="15" t="s">
         <v>19</v>
       </c>
       <c r="W66" s="15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
@@ -2843,19 +2842,19 @@
         <v>Language  Bot</v>
       </c>
       <c r="B67" s="6">
-        <f t="shared" ref="B67:E67" si="48">B59/B63</f>
+        <f t="shared" ref="B67:E67" si="37">B59/B63</f>
         <v>6.5945757341964048E-2</v>
       </c>
       <c r="C67" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>0.12880448197340694</v>
       </c>
       <c r="D67" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>7.9245895810613823E-2</v>
       </c>
       <c r="E67" s="6">
-        <f t="shared" si="48"/>
+        <f t="shared" si="37"/>
         <v>4.3309016509340492E-2</v>
       </c>
       <c r="G67" s="5" t="str">
@@ -2863,19 +2862,19 @@
         <v>Language  Bot</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" ref="H67:K67" si="49">H59/H63</f>
+        <f t="shared" ref="H67:K67" si="38">H59/H63</f>
         <v>0.13205111014714627</v>
       </c>
       <c r="I67" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.14420603304189974</v>
       </c>
       <c r="J67" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.22134790150522932</v>
       </c>
       <c r="K67" s="6">
-        <f t="shared" si="49"/>
+        <f t="shared" si="38"/>
         <v>0.29768737210807239</v>
       </c>
       <c r="M67" s="5" t="str">
@@ -2883,19 +2882,19 @@
         <v>Language  Bot</v>
       </c>
       <c r="N67" s="6">
-        <f t="shared" ref="N67:Q67" si="50">N59/N63</f>
-        <v>0.12185734953333083</v>
+        <f t="shared" ref="N67:Q67" si="39">N59/N63</f>
+        <v>0.14412612215450382</v>
       </c>
       <c r="O67" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.15319479275711098</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>5.9372589637840902E-2</v>
       </c>
       <c r="Q67" s="6">
-        <f t="shared" si="50"/>
+        <f t="shared" si="39"/>
         <v>0.21756372944756866</v>
       </c>
       <c r="S67" s="5" t="str">
@@ -2903,270 +2902,270 @@
         <v>Language  Bot</v>
       </c>
       <c r="T67" s="6">
-        <f t="shared" ref="T67:W67" si="51">T59/T63</f>
+        <f t="shared" ref="T67:W67" si="40">T59/T63</f>
         <v>0.35266537236651491</v>
       </c>
       <c r="U67" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.2817541634481458</v>
       </c>
       <c r="V67" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.38587210727842047</v>
       </c>
       <c r="W67" s="6">
-        <f t="shared" si="51"/>
+        <f t="shared" si="40"/>
         <v>0.25728427444747209</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="str">
-        <f t="shared" ref="A68:A70" si="52">A60</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="A68:A70" si="41">A60</f>
+        <v>FitLife</v>
       </c>
       <c r="B68" s="6">
-        <f t="shared" ref="B68:E68" si="53">B60/B63</f>
+        <f t="shared" ref="B68:E68" si="42">B60/B63</f>
         <v>0.25540681993846226</v>
       </c>
       <c r="C68" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="42"/>
         <v>0.49885761359987857</v>
       </c>
       <c r="D68" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="42"/>
         <v>0.3069180347297954</v>
       </c>
       <c r="E68" s="6">
-        <f t="shared" si="53"/>
+        <f t="shared" si="42"/>
         <v>0.76865879099051038</v>
       </c>
       <c r="G68" s="5" t="str">
-        <f t="shared" ref="G68:G70" si="54">A68</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="G68:G70" si="43">A68</f>
+        <v>FitLife</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" ref="H68:K68" si="55">H60/H63</f>
+        <f t="shared" ref="H68:K68" si="44">H60/H63</f>
         <v>0.60513420785224892</v>
       </c>
       <c r="I68" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.6608350620838086</v>
       </c>
       <c r="J68" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.33811450452244768</v>
       </c>
       <c r="K68" s="6">
-        <f t="shared" si="55"/>
+        <f t="shared" si="44"/>
         <v>0.61007756912786248</v>
       </c>
       <c r="M68" s="5" t="str">
-        <f t="shared" ref="M68:M70" si="56">A68</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="M68:M70" si="45">A68</f>
+        <v>FitLife</v>
       </c>
       <c r="N68" s="6">
-        <f t="shared" ref="N68:Q68" si="57">N60/N63</f>
-        <v>0.47195148535556647</v>
+        <f t="shared" ref="N68:Q68" si="46">N60/N63</f>
+        <v>0.55819807085784923</v>
       </c>
       <c r="O68" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>0.5933208810739875</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>0.78542553437808749</v>
       </c>
       <c r="Q68" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="46"/>
         <v>0.28087356696306987</v>
       </c>
       <c r="S68" s="5" t="str">
-        <f t="shared" ref="S68:S70" si="58">A68</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="S68:S70" si="47">A68</f>
+        <v>FitLife</v>
       </c>
       <c r="T68" s="6">
-        <f t="shared" ref="T68:W68" si="59">T60/T63</f>
+        <f t="shared" ref="T68:W68" si="48">T60/T63</f>
         <v>9.1057807597303295E-2</v>
       </c>
       <c r="U68" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>7.27486121839514E-2</v>
       </c>
       <c r="V68" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>9.96317496836856E-2</v>
       </c>
       <c r="W68" s="6">
-        <f t="shared" si="59"/>
+        <f t="shared" si="48"/>
         <v>0.14854314511050559</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="str">
+        <f t="shared" si="41"/>
+        <v>Habit Tracker</v>
+      </c>
+      <c r="B69" s="6">
+        <f t="shared" ref="B69:E69" si="49">B61/B63</f>
+        <v>8.5135606641897302E-2</v>
+      </c>
+      <c r="C69" s="6">
+        <f t="shared" si="49"/>
+        <v>0.28801557749918416</v>
+      </c>
+      <c r="D69" s="6">
+        <f t="shared" si="49"/>
+        <v>0.10230601157659848</v>
+      </c>
+      <c r="E69" s="6">
+        <f t="shared" si="49"/>
+        <v>5.8105142972127599E-2</v>
+      </c>
+      <c r="G69" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>Habit Tracker</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" ref="H69:K69" si="50">H61/H63</f>
+        <v>3.4095450029873242E-2</v>
+      </c>
+      <c r="I69" s="6">
+        <f t="shared" si="50"/>
+        <v>0.11170151287878284</v>
+      </c>
+      <c r="J69" s="6">
+        <f t="shared" si="50"/>
+        <v>5.7151782416514182E-2</v>
+      </c>
+      <c r="K69" s="6">
+        <f t="shared" si="50"/>
+        <v>1.5372509794010863E-2</v>
+      </c>
+      <c r="M69" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>Habit Tracker</v>
+      </c>
+      <c r="N69" s="6">
+        <f t="shared" ref="N69:Q69" si="51">N61/N63</f>
+        <v>0.249633766269479</v>
+      </c>
+      <c r="O69" s="6">
+        <f t="shared" si="51"/>
+        <v>0.10028953341179055</v>
+      </c>
+      <c r="P69" s="6">
+        <f t="shared" si="51"/>
+        <v>0.13276114643041187</v>
+      </c>
+      <c r="Q69" s="6">
+        <f t="shared" si="51"/>
+        <v>0.42904146044017188</v>
+      </c>
+      <c r="S69" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Habit Tracker</v>
+      </c>
+      <c r="T69" s="6">
+        <f t="shared" ref="T69:W69" si="52">T61/T63</f>
+        <v>0.35266537236651491</v>
+      </c>
+      <c r="U69" s="6">
         <f t="shared" si="52"/>
-        <v>Habit Tracker</v>
-      </c>
-      <c r="B69" s="6">
-        <f t="shared" ref="B69:E69" si="60">B61/B63</f>
-        <v>8.5135606641897302E-2</v>
-      </c>
-      <c r="C69" s="6">
-        <f t="shared" si="60"/>
-        <v>0.28801557749918416</v>
-      </c>
-      <c r="D69" s="6">
-        <f t="shared" si="60"/>
-        <v>0.10230601157659848</v>
-      </c>
-      <c r="E69" s="6">
-        <f t="shared" si="60"/>
-        <v>5.8105142972127599E-2</v>
-      </c>
-      <c r="G69" s="5" t="str">
-        <f t="shared" si="54"/>
-        <v>Habit Tracker</v>
-      </c>
-      <c r="H69" s="6">
-        <f t="shared" ref="H69:K69" si="61">H61/H63</f>
-        <v>3.4095450029873242E-2</v>
-      </c>
-      <c r="I69" s="6">
-        <f t="shared" si="61"/>
-        <v>0.11170151287878284</v>
-      </c>
-      <c r="J69" s="6">
-        <f t="shared" si="61"/>
-        <v>5.7151782416514182E-2</v>
-      </c>
-      <c r="K69" s="6">
-        <f t="shared" si="61"/>
-        <v>1.5372509794010863E-2</v>
-      </c>
-      <c r="M69" s="5" t="str">
-        <f t="shared" si="56"/>
-        <v>Habit Tracker</v>
-      </c>
-      <c r="N69" s="6">
-        <f t="shared" ref="N69:Q69" si="62">N61/N63</f>
-        <v>0.36557204859999248</v>
-      </c>
-      <c r="O69" s="6">
-        <f t="shared" si="62"/>
-        <v>0.10028953341179055</v>
-      </c>
-      <c r="P69" s="6">
-        <f t="shared" si="62"/>
-        <v>0.13276114643041187</v>
-      </c>
-      <c r="Q69" s="6">
-        <f t="shared" si="62"/>
-        <v>0.42904146044017188</v>
-      </c>
-      <c r="S69" s="5" t="str">
-        <f t="shared" si="58"/>
-        <v>Habit Tracker</v>
-      </c>
-      <c r="T69" s="6">
-        <f t="shared" ref="T69:W69" si="63">T61/T63</f>
-        <v>0.35266537236651491</v>
-      </c>
-      <c r="U69" s="6">
-        <f t="shared" si="63"/>
         <v>0.2817541634481458</v>
       </c>
       <c r="V69" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>0.38587210727842047</v>
       </c>
       <c r="W69" s="6">
-        <f t="shared" si="63"/>
+        <f t="shared" si="52"/>
         <v>0.44562943533151678</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="str">
-        <f t="shared" si="52"/>
-        <v>FitLife</v>
+        <f t="shared" si="41"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="B70" s="6">
-        <f t="shared" ref="B70:E70" si="64">B62/B63</f>
+        <f t="shared" ref="B70:E70" si="53">B62/B63</f>
         <v>0.59351181607767645</v>
       </c>
       <c r="C70" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>8.4322326927530319E-2</v>
       </c>
       <c r="D70" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>0.51153005788299233</v>
       </c>
       <c r="E70" s="6">
-        <f t="shared" si="64"/>
+        <f t="shared" si="53"/>
         <v>0.12992704952802148</v>
       </c>
       <c r="G70" s="5" t="str">
+        <f t="shared" si="43"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" ref="H70:K70" si="54">H62/H63</f>
+        <v>0.22871923197073143</v>
+      </c>
+      <c r="I70" s="6">
         <f t="shared" si="54"/>
-        <v>FitLife</v>
-      </c>
-      <c r="H70" s="6">
-        <f t="shared" ref="H70:K70" si="65">H62/H63</f>
-        <v>0.22871923197073143</v>
-      </c>
-      <c r="I70" s="6">
-        <f t="shared" si="65"/>
         <v>8.3257391995508898E-2</v>
       </c>
       <c r="J70" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="54"/>
         <v>0.38338581155580875</v>
       </c>
       <c r="K70" s="6">
-        <f t="shared" si="65"/>
+        <f t="shared" si="54"/>
         <v>7.6862548970054304E-2</v>
       </c>
       <c r="M70" s="5" t="str">
+        <f t="shared" si="45"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="N70" s="6">
+        <f t="shared" ref="N70:Q70" si="55">N62/N63</f>
+        <v>4.8042040718167943E-2</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" si="55"/>
+        <v>0.15319479275711098</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="55"/>
+        <v>2.2440729553659642E-2</v>
+      </c>
+      <c r="Q70" s="6">
+        <f t="shared" si="55"/>
+        <v>7.2521243149189563E-2</v>
+      </c>
+      <c r="S70" s="5" t="str">
+        <f t="shared" si="47"/>
+        <v>Recipe Manager</v>
+      </c>
+      <c r="T70" s="6">
+        <f t="shared" ref="T70:W70" si="56">T62/T63</f>
+        <v>0.20361144766966696</v>
+      </c>
+      <c r="U70" s="6">
         <f t="shared" si="56"/>
-        <v>FitLife</v>
-      </c>
-      <c r="N70" s="6">
-        <f t="shared" ref="N70:Q70" si="66">N62/N63</f>
-        <v>4.0619116511110276E-2</v>
-      </c>
-      <c r="O70" s="6">
-        <f t="shared" si="66"/>
-        <v>0.15319479275711098</v>
-      </c>
-      <c r="P70" s="6">
-        <f t="shared" si="66"/>
-        <v>2.2440729553659642E-2</v>
-      </c>
-      <c r="Q70" s="6">
-        <f t="shared" si="66"/>
-        <v>7.2521243149189563E-2</v>
-      </c>
-      <c r="S70" s="5" t="str">
-        <f t="shared" si="58"/>
-        <v>FitLife</v>
-      </c>
-      <c r="T70" s="6">
-        <f t="shared" ref="T70:W70" si="67">T62/T63</f>
-        <v>0.20361144766966696</v>
-      </c>
-      <c r="U70" s="6">
-        <f t="shared" si="67"/>
         <v>0.36374306091975706</v>
       </c>
       <c r="V70" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>0.12862403575947348</v>
       </c>
       <c r="W70" s="6">
-        <f t="shared" si="67"/>
+        <f t="shared" si="56"/>
         <v>0.14854314511050559</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
+      <c r="A72" s="18"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
       <c r="D72" s="17"/>
@@ -3237,90 +3236,90 @@
         <v>Language  Bot</v>
       </c>
       <c r="B75" s="6">
-        <f t="shared" ref="B75:B78" si="68">AVERAGE(B67:E67)</f>
+        <f t="shared" ref="B75:B78" si="57">AVERAGE(B67:E67)</f>
         <v>7.9326287908831325E-2</v>
       </c>
       <c r="C75" s="6">
-        <f t="shared" ref="C75:C78" si="69">AVERAGE(H67:K67)</f>
+        <f t="shared" ref="C75:C78" si="58">AVERAGE(H67:K67)</f>
         <v>0.19882310420058694</v>
       </c>
       <c r="D75" s="6">
-        <f t="shared" ref="D75:D78" si="70">AVERAGE(N67:Q67)</f>
-        <v>0.13799711534396286</v>
+        <f t="shared" ref="D75:D78" si="59">AVERAGE(N67:Q67)</f>
+        <v>0.14356430849925611</v>
       </c>
       <c r="E75" s="6">
-        <f t="shared" ref="E75:E78" si="71">AVERAGE(T67:W67)</f>
+        <f t="shared" ref="E75:E78" si="60">AVERAGE(T67:W67)</f>
         <v>0.31939397938513836</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="str">
-        <f t="shared" ref="A76:A78" si="72">A68</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="A76:A78" si="61">A68</f>
+        <v>FitLife</v>
       </c>
       <c r="B76" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0.45746031481466165</v>
       </c>
       <c r="C76" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>0.55354033589659191</v>
       </c>
       <c r="D76" s="6">
-        <f t="shared" si="70"/>
-        <v>0.5328928669426779</v>
+        <f t="shared" si="59"/>
+        <v>0.55445451331824858</v>
       </c>
       <c r="E76" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0.10299532864386148</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="61"/>
         <v>Habit Tracker</v>
       </c>
       <c r="B77" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0.13339058467245188</v>
       </c>
       <c r="C77" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>5.4580313779795282E-2</v>
       </c>
       <c r="D77" s="6">
-        <f t="shared" si="70"/>
-        <v>0.25691604722059169</v>
+        <f t="shared" si="59"/>
+        <v>0.22793147663796332</v>
       </c>
       <c r="E77" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0.36648026960614954</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="str">
-        <f t="shared" si="72"/>
-        <v>FitLife</v>
+        <f t="shared" si="61"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="B78" s="6">
-        <f t="shared" si="68"/>
+        <f t="shared" si="57"/>
         <v>0.3298228126040551</v>
       </c>
       <c r="C78" s="6">
-        <f t="shared" si="69"/>
+        <f t="shared" si="58"/>
         <v>0.19305624612302585</v>
       </c>
       <c r="D78" s="6">
-        <f t="shared" si="70"/>
-        <v>7.2193970492767615E-2</v>
+        <f t="shared" si="59"/>
+        <v>7.4049701544532026E-2</v>
       </c>
       <c r="E78" s="6">
-        <f t="shared" si="71"/>
+        <f t="shared" si="60"/>
         <v>0.21113042236485077</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="17"/>
       <c r="C80" s="17"/>
       <c r="D80" s="17"/>
@@ -3356,7 +3355,7 @@
       </c>
       <c r="B82" s="6">
         <f>B75*AF32 + C75*AF33 + D75*AF34+ E75*AF35</f>
-        <v>0.20657885752832911</v>
+        <v>0.20890538469753939</v>
       </c>
       <c r="C82" s="6">
         <f>RANK(B82,B82:B85)</f>
@@ -3365,12 +3364,12 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="str">
-        <f t="shared" ref="A83:A85" si="73">A76</f>
-        <v>Recipe Manager</v>
+        <f t="shared" ref="A83:A85" si="62">A76</f>
+        <v>FitLife</v>
       </c>
       <c r="B83" s="6">
-        <f t="shared" ref="B83:B85" si="74">B76*AF33 + C76*AF34 + D76*AF35+ E76*AF36</f>
-        <v>0.48988877915126844</v>
+        <f t="shared" ref="B83:B85" si="63">B76*AF33 + C76*AF34 + D76*AF35+ E76*AF36</f>
+        <v>0.49741164551559347</v>
       </c>
       <c r="C83" s="6">
         <f>RANK(B83,B82:B85)</f>
@@ -3379,11 +3378,11 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="62"/>
         <v>Habit Tracker</v>
       </c>
       <c r="B84" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="63"/>
         <v>7.4786948625645527E-2</v>
       </c>
       <c r="C84" s="6">
@@ -3393,11 +3392,11 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="str">
-        <f t="shared" si="73"/>
-        <v>FitLife</v>
+        <f t="shared" si="62"/>
+        <v>Recipe Manager</v>
       </c>
       <c r="B85" s="6">
-        <f t="shared" si="74"/>
+        <f t="shared" si="63"/>
         <v>0.11507530083311923</v>
       </c>
       <c r="C85" s="6">
@@ -3407,25 +3406,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="M19:Q19"/>
-    <mergeCell ref="S19:W19"/>
+    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A64:W64"/>
     <mergeCell ref="A72:W72"/>
     <mergeCell ref="A80:W80"/>
-    <mergeCell ref="Y18:AC18"/>
-    <mergeCell ref="Y26:AC26"/>
     <mergeCell ref="A26:E26"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="M26:Q26"/>
     <mergeCell ref="S26:W26"/>
+    <mergeCell ref="Y26:AC26"/>
     <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A44:E44"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="S18:W18"/>
+    <mergeCell ref="Y18:AC18"/>
     <mergeCell ref="A19:E19"/>
+    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="M19:Q19"/>
+    <mergeCell ref="S19:W19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
